--- a/TheKesselRun/Data/Support Feature Set.xlsx
+++ b/TheKesselRun/Data/Support Feature Set.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trasw\PycharmProjects\CatalystExMachina\TheKesselRun\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quick\PycharmProjects\CatalystExMachina\TheKesselRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1028BC-0A97-4C23-8DD4-36D688F1A2AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D6B49-3721-46EF-B68A-EE1B7186C55D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Citations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Feature</t>
   </si>
@@ -43,30 +49,15 @@
     <t>YSZ</t>
   </si>
   <si>
-    <t>SiO2, gel</t>
-  </si>
-  <si>
     <t>CeO2</t>
   </si>
   <si>
     <t>TiO2</t>
   </si>
   <si>
-    <t>Pore Size</t>
-  </si>
-  <si>
-    <t>Pore Volume</t>
-  </si>
-  <si>
-    <t>Surface Area</t>
-  </si>
-  <si>
     <t>Crystal Structure</t>
   </si>
   <si>
-    <t>Basicity</t>
-  </si>
-  <si>
     <t>PZC Low</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>R-3c</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
     <t>Molar Mass</t>
   </si>
   <si>
@@ -109,7 +97,37 @@
     <t>Molar Entropy</t>
   </si>
   <si>
-    <t>n_Oxygen</t>
+    <t>Surface Area (m2/g)</t>
+  </si>
+  <si>
+    <t>Total Metal Impurities (%)</t>
+  </si>
+  <si>
+    <t>D10 (um)</t>
+  </si>
+  <si>
+    <t>D90 (um)</t>
+  </si>
+  <si>
+    <t>D50 (um)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Particle Size (nm)</t>
+  </si>
+  <si>
+    <t>Pore Size (angs)</t>
+  </si>
+  <si>
+    <t>Pore Volume (cm3/g)</t>
+  </si>
+  <si>
+    <t>Density (g/mL)</t>
+  </si>
+  <si>
+    <t>SiO2</t>
   </si>
 </sst>
 </file>
@@ -127,14 +145,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,15 +177,153 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -176,6 +334,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H19" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Feature"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SiO2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="a-Al2O3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TiO2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="YSZ" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MgO" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CeO2" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="g-Al2O3" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,15 +616,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -457,165 +635,341 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300</v>
+      </c>
+      <c r="C2" s="1">
         <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>60.08</v>
+      </c>
+      <c r="C3" s="2">
+        <v>101.961</v>
+      </c>
+      <c r="D3" s="3">
+        <v>79.866</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>172.11500000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>101.961</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.435</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <f>400/1000</f>
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C13*1000</f>
+        <v>300</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H5" s="1">
+        <f>44 * 1000</f>
+        <v>44000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
         <v>7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>101.961</v>
-      </c>
-      <c r="C11" s="1">
-        <v>101.961</v>
-      </c>
-      <c r="H11" s="2">
-        <v>79.866</v>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>0.46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C83F7B-EA6A-4206-89C6-C5CD29519A94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -626,10 +980,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TheKesselRun/Data/Support Feature Set.xlsx
+++ b/TheKesselRun/Data/Support Feature Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quick\PycharmProjects\CatalystExMachina\TheKesselRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D6B49-3721-46EF-B68A-EE1B7186C55D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A7FF64-0A0F-43EA-A4FF-44DA3504BAA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>MgO</t>
   </si>
   <si>
-    <t>YSZ</t>
-  </si>
-  <si>
     <t>CeO2</t>
   </si>
   <si>
@@ -128,13 +125,19 @@
   </si>
   <si>
     <t>SiO2</t>
+  </si>
+  <si>
+    <t>ZSM-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +159,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,16 +201,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -344,7 +377,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SiO2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="a-Al2O3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TiO2" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="YSZ" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ZSM-5" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MgO" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CeO2" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="g-Al2O3" dataDxfId="0"/>
@@ -616,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,38 +660,40 @@
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>300</v>
@@ -669,8 +704,12 @@
       <c r="D2" s="1">
         <v>49</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1">
+        <v>437</v>
+      </c>
+      <c r="F2" s="7">
+        <v>350</v>
+      </c>
       <c r="G2" s="1">
         <v>92</v>
       </c>
@@ -678,9 +717,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>60.08</v>
@@ -691,7 +730,9 @@
       <c r="D3" s="3">
         <v>79.866</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="6">
+        <v>88.390879999999981</v>
+      </c>
       <c r="F3" s="1">
         <v>40.299999999999997</v>
       </c>
@@ -701,10 +742,11 @@
       <c r="H3" s="2">
         <v>101.961</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -715,7 +757,9 @@
       <c r="D4" s="1">
         <v>0.5</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1E-3</v>
+      </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
@@ -725,10 +769,11 @@
       <c r="H4" s="1">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <f>400/1000</f>
@@ -741,8 +786,13 @@
       <c r="D5" s="1">
         <v>21</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <f>3.7*1000</f>
+        <v>3700</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20000</v>
+      </c>
       <c r="G5" s="1">
         <v>4.7</v>
       </c>
@@ -751,9 +801,9 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
@@ -767,9 +817,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -785,9 +835,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -803,9 +853,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>0.7</v>
@@ -815,13 +865,15 @@
         <v>4.26</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>3.58</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>150</v>
@@ -833,9 +885,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>1.1499999999999999</v>
@@ -849,9 +901,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -863,9 +915,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -877,9 +929,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -891,41 +943,41 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -937,7 +989,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -949,7 +1001,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -980,10 +1032,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
